--- a/data/NewlyCreatedData/Checks/red_flags_idade1.xlsx
+++ b/data/NewlyCreatedData/Checks/red_flags_idade1.xlsx
@@ -221,70 +221,70 @@
     <t>obs20422</t>
   </si>
   <si>
-    <t>obs20610</t>
-  </si>
-  <si>
-    <t>obs20799</t>
-  </si>
-  <si>
-    <t>obs20985</t>
-  </si>
-  <si>
-    <t>obs21183</t>
-  </si>
-  <si>
-    <t>obs21359</t>
-  </si>
-  <si>
-    <t>obs21533</t>
-  </si>
-  <si>
-    <t>obs21708</t>
-  </si>
-  <si>
-    <t>obs21882</t>
-  </si>
-  <si>
-    <t>obs22077</t>
-  </si>
-  <si>
-    <t>obs22278</t>
-  </si>
-  <si>
-    <t>obs22494</t>
-  </si>
-  <si>
-    <t>obs22719</t>
-  </si>
-  <si>
-    <t>obs22934</t>
-  </si>
-  <si>
-    <t>obs23195</t>
-  </si>
-  <si>
-    <t>obs23462</t>
-  </si>
-  <si>
-    <t>obs23762</t>
-  </si>
-  <si>
-    <t>obs24078</t>
-  </si>
-  <si>
-    <t>obs24394</t>
-  </si>
-  <si>
-    <t>obs24721</t>
-  </si>
-  <si>
-    <t>obs25083</t>
-  </si>
-  <si>
-    <t>obs25446</t>
-  </si>
-  <si>
-    <t>obs25832</t>
+    <t>obs20609</t>
+  </si>
+  <si>
+    <t>obs20798</t>
+  </si>
+  <si>
+    <t>obs20984</t>
+  </si>
+  <si>
+    <t>obs21182</t>
+  </si>
+  <si>
+    <t>obs21358</t>
+  </si>
+  <si>
+    <t>obs21532</t>
+  </si>
+  <si>
+    <t>obs21707</t>
+  </si>
+  <si>
+    <t>obs21881</t>
+  </si>
+  <si>
+    <t>obs22076</t>
+  </si>
+  <si>
+    <t>obs22277</t>
+  </si>
+  <si>
+    <t>obs22493</t>
+  </si>
+  <si>
+    <t>obs22718</t>
+  </si>
+  <si>
+    <t>obs22933</t>
+  </si>
+  <si>
+    <t>obs23194</t>
+  </si>
+  <si>
+    <t>obs23461</t>
+  </si>
+  <si>
+    <t>obs23761</t>
+  </si>
+  <si>
+    <t>obs24077</t>
+  </si>
+  <si>
+    <t>obs24393</t>
+  </si>
+  <si>
+    <t>obs24720</t>
+  </si>
+  <si>
+    <t>obs25082</t>
+  </si>
+  <si>
+    <t>obs25445</t>
+  </si>
+  <si>
+    <t>obs25831</t>
   </si>
   <si>
     <t>obs12195</t>
@@ -497,135 +497,135 @@
     <t>obs20213</t>
   </si>
   <si>
+    <t>obs21003</t>
+  </si>
+  <si>
+    <t>obs12197</t>
+  </si>
+  <si>
+    <t>obs13251</t>
+  </si>
+  <si>
+    <t>obs13361</t>
+  </si>
+  <si>
+    <t>obs13676</t>
+  </si>
+  <si>
+    <t>obs13689</t>
+  </si>
+  <si>
+    <t>obs13756</t>
+  </si>
+  <si>
+    <t>obs13896</t>
+  </si>
+  <si>
+    <t>obs14039</t>
+  </si>
+  <si>
+    <t>obs14186</t>
+  </si>
+  <si>
+    <t>obs14327</t>
+  </si>
+  <si>
+    <t>obs14466</t>
+  </si>
+  <si>
+    <t>obs14624</t>
+  </si>
+  <si>
+    <t>obs14798</t>
+  </si>
+  <si>
+    <t>obs14957</t>
+  </si>
+  <si>
+    <t>obs15131</t>
+  </si>
+  <si>
+    <t>obs15285</t>
+  </si>
+  <si>
+    <t>obs15453</t>
+  </si>
+  <si>
+    <t>obs15625</t>
+  </si>
+  <si>
+    <t>obs15790</t>
+  </si>
+  <si>
+    <t>obs15943</t>
+  </si>
+  <si>
+    <t>obs16108</t>
+  </si>
+  <si>
+    <t>obs16288</t>
+  </si>
+  <si>
+    <t>obs16475</t>
+  </si>
+  <si>
+    <t>obs16669</t>
+  </si>
+  <si>
+    <t>obs16870</t>
+  </si>
+  <si>
+    <t>obs17056</t>
+  </si>
+  <si>
+    <t>obs17249</t>
+  </si>
+  <si>
+    <t>obs17449</t>
+  </si>
+  <si>
+    <t>obs17637</t>
+  </si>
+  <si>
+    <t>obs17831</t>
+  </si>
+  <si>
+    <t>obs18020</t>
+  </si>
+  <si>
+    <t>obs18213</t>
+  </si>
+  <si>
+    <t>obs18412</t>
+  </si>
+  <si>
+    <t>obs18624</t>
+  </si>
+  <si>
+    <t>obs18836</t>
+  </si>
+  <si>
+    <t>obs19054</t>
+  </si>
+  <si>
+    <t>obs19281</t>
+  </si>
+  <si>
+    <t>obs19508</t>
+  </si>
+  <si>
+    <t>obs19745</t>
+  </si>
+  <si>
+    <t>obs19983</t>
+  </si>
+  <si>
+    <t>obs20214</t>
+  </si>
+  <si>
     <t>obs21004</t>
   </si>
   <si>
-    <t>obs12197</t>
-  </si>
-  <si>
-    <t>obs13251</t>
-  </si>
-  <si>
-    <t>obs13361</t>
-  </si>
-  <si>
-    <t>obs13676</t>
-  </si>
-  <si>
-    <t>obs13689</t>
-  </si>
-  <si>
-    <t>obs13756</t>
-  </si>
-  <si>
-    <t>obs13896</t>
-  </si>
-  <si>
-    <t>obs14039</t>
-  </si>
-  <si>
-    <t>obs14186</t>
-  </si>
-  <si>
-    <t>obs14327</t>
-  </si>
-  <si>
-    <t>obs14466</t>
-  </si>
-  <si>
-    <t>obs14624</t>
-  </si>
-  <si>
-    <t>obs14798</t>
-  </si>
-  <si>
-    <t>obs14957</t>
-  </si>
-  <si>
-    <t>obs15131</t>
-  </si>
-  <si>
-    <t>obs15285</t>
-  </si>
-  <si>
-    <t>obs15453</t>
-  </si>
-  <si>
-    <t>obs15625</t>
-  </si>
-  <si>
-    <t>obs15790</t>
-  </si>
-  <si>
-    <t>obs15943</t>
-  </si>
-  <si>
-    <t>obs16108</t>
-  </si>
-  <si>
-    <t>obs16288</t>
-  </si>
-  <si>
-    <t>obs16475</t>
-  </si>
-  <si>
-    <t>obs16669</t>
-  </si>
-  <si>
-    <t>obs16870</t>
-  </si>
-  <si>
-    <t>obs17056</t>
-  </si>
-  <si>
-    <t>obs17249</t>
-  </si>
-  <si>
-    <t>obs17449</t>
-  </si>
-  <si>
-    <t>obs17637</t>
-  </si>
-  <si>
-    <t>obs17831</t>
-  </si>
-  <si>
-    <t>obs18020</t>
-  </si>
-  <si>
-    <t>obs18213</t>
-  </si>
-  <si>
-    <t>obs18412</t>
-  </si>
-  <si>
-    <t>obs18624</t>
-  </si>
-  <si>
-    <t>obs18836</t>
-  </si>
-  <si>
-    <t>obs19054</t>
-  </si>
-  <si>
-    <t>obs19281</t>
-  </si>
-  <si>
-    <t>obs19508</t>
-  </si>
-  <si>
-    <t>obs19745</t>
-  </si>
-  <si>
-    <t>obs19983</t>
-  </si>
-  <si>
-    <t>obs20214</t>
-  </si>
-  <si>
-    <t>obs21005</t>
-  </si>
-  <si>
     <t>obs7895</t>
   </si>
   <si>
@@ -761,49 +761,49 @@
     <t>obs11419</t>
   </si>
   <si>
-    <t>obs21899</t>
-  </si>
-  <si>
-    <t>obs22094</t>
-  </si>
-  <si>
-    <t>obs22296</t>
-  </si>
-  <si>
-    <t>obs22512</t>
-  </si>
-  <si>
-    <t>obs22738</t>
-  </si>
-  <si>
-    <t>obs22952</t>
-  </si>
-  <si>
-    <t>obs23212</t>
-  </si>
-  <si>
-    <t>obs23477</t>
-  </si>
-  <si>
-    <t>obs23776</t>
-  </si>
-  <si>
-    <t>obs24098</t>
-  </si>
-  <si>
-    <t>obs24418</t>
-  </si>
-  <si>
-    <t>obs24746</t>
-  </si>
-  <si>
-    <t>obs25107</t>
-  </si>
-  <si>
-    <t>obs25471</t>
-  </si>
-  <si>
-    <t>obs25857</t>
+    <t>obs21898</t>
+  </si>
+  <si>
+    <t>obs22093</t>
+  </si>
+  <si>
+    <t>obs22295</t>
+  </si>
+  <si>
+    <t>obs22511</t>
+  </si>
+  <si>
+    <t>obs22737</t>
+  </si>
+  <si>
+    <t>obs22951</t>
+  </si>
+  <si>
+    <t>obs23211</t>
+  </si>
+  <si>
+    <t>obs23476</t>
+  </si>
+  <si>
+    <t>obs23775</t>
+  </si>
+  <si>
+    <t>obs24097</t>
+  </si>
+  <si>
+    <t>obs24417</t>
+  </si>
+  <si>
+    <t>obs24745</t>
+  </si>
+  <si>
+    <t>obs25106</t>
+  </si>
+  <si>
+    <t>obs25470</t>
+  </si>
+  <si>
+    <t>obs25856</t>
   </si>
   <si>
     <t>obs4055</t>
@@ -1106,7 +1106,7 @@
     <t>obs20326</t>
   </si>
   <si>
-    <t>obs21091</t>
+    <t>obs21090</t>
   </si>
   <si>
     <t>obs12122</t>
@@ -1769,7 +1769,7 @@
     <t>obs20217</t>
   </si>
   <si>
-    <t>obs21008</t>
+    <t>obs21007</t>
   </si>
   <si>
     <t>obs7192</t>
